--- a/chapter 3/ExcelTables.xlsx
+++ b/chapter 3/ExcelTables.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curt\Desktop\Exercise Files\Chapter03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scarstruck/Git/excel_vlookups/chapter 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AE712A87-861A-4BFE-9BFB-C58566030CB7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36A64C3-899D-5840-ADCA-1C4B0E386E30}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="9375" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="24860" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Year</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Sales</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -123,18 +126,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -145,6 +207,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE52BD68-9960-7E44-97F4-9D12CA291246}" name="sum" displayName="sum" ref="A1:D26" totalsRowCount="1" headerRowDxfId="1">
+  <autoFilter ref="A1:D25" xr:uid="{4CA7C86A-2853-F540-8336-F917DEAB83FF}"/>
+  <sortState ref="A2:D25">
+    <sortCondition ref="D1:D25"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{49DAB79F-CD23-CA4D-8C8A-75A3D41A598A}" name="Year" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{FC1C83B7-7CEE-BC49-9D86-84846A06A611}" name="Quarter"/>
+    <tableColumn id="3" xr3:uid="{F5DC17B4-2461-C84F-A64F-97CECA8B830A}" name="Month"/>
+    <tableColumn id="4" xr3:uid="{592DD946-2F38-C748-873A-4CE82A53A04C}" name="Sales" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="0" dataCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -468,20 +546,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,133 +573,133 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2017</v>
       </c>
       <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2">
+        <v>225542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>238742</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2018</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>262521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>273156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2018</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>285230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2018</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
+        <v>294916</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2018</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2">
-        <v>575572</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2017</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2">
-        <v>510989</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2017</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>460289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2017</v>
-      </c>
-      <c r="B5">
+      <c r="D8" s="2">
+        <v>323859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2">
-        <v>506853</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2017</v>
-      </c>
-      <c r="B6">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>328243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2017</v>
+      </c>
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D10" s="2">
         <v>363981</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2017</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2">
-        <v>328243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2017</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2">
-        <v>445099</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2">
-        <v>465944</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2017</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2">
-        <v>408157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -629,85 +707,85 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2">
-        <v>225542</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>407128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2017</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2">
-        <v>549089</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>408157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2">
-        <v>407128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>411238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2">
-        <v>556748</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>445099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2">
-        <v>323859</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>460289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2">
-        <v>529446</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>465944</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -716,108 +794,108 @@
         <v>6</v>
       </c>
       <c r="D17" s="2">
-        <v>262521</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>506853</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2">
+        <v>510989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2018</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2">
+        <v>524391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>529446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C21" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D21" s="2">
         <v>540101</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2018</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="2">
-        <v>411238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2018</v>
-      </c>
-      <c r="B20">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2017</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2">
+        <v>549089</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2018</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2">
-        <v>524391</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2018</v>
-      </c>
-      <c r="B21">
+      <c r="D23" s="2">
+        <v>556748</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2017</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>3</v>
       </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="2">
-        <v>238742</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2018</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="2">
-        <v>294916</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2018</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2">
-        <v>588819</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2018</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
       <c r="D24" s="2">
-        <v>273156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>575572</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -825,13 +903,25 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2">
-        <v>285230</v>
+        <v>588819</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="3">
+        <f>SUBTOTAL(109,sum[Sales])</f>
+        <v>10076053</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>